--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_middelhoog.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_middelhoog.xlsx
@@ -430,25 +430,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2162</v>
+        <v>2165.691048665342</v>
       </c>
       <c r="C2">
-        <v>1833</v>
+        <v>1838.018729192084</v>
       </c>
       <c r="D2">
-        <v>1306</v>
+        <v>1303.400515533381</v>
       </c>
       <c r="E2">
-        <v>2208</v>
+        <v>2213.267102976351</v>
       </c>
       <c r="F2">
-        <v>2172</v>
+        <v>2175.325749412518</v>
       </c>
       <c r="G2">
-        <v>2106</v>
+        <v>2108.131502855095</v>
       </c>
       <c r="H2">
-        <v>2209</v>
+        <v>2214.805403650955</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,25 +456,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2179</v>
+        <v>2183.136329287854</v>
       </c>
       <c r="C3">
-        <v>1841</v>
+        <v>1847.781862906447</v>
       </c>
       <c r="D3">
-        <v>1166</v>
+        <v>1158.652876897095</v>
       </c>
       <c r="E3">
-        <v>2210</v>
+        <v>2214.879550218847</v>
       </c>
       <c r="F3">
-        <v>2184</v>
+        <v>2187.073464779258</v>
       </c>
       <c r="G3">
-        <v>2102</v>
+        <v>2100.219135539186</v>
       </c>
       <c r="H3">
-        <v>2210</v>
+        <v>2215.442358444167</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -482,25 +482,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2124</v>
+        <v>2127.598171040406</v>
       </c>
       <c r="C4">
-        <v>1844</v>
+        <v>1850.061862514113</v>
       </c>
       <c r="D4">
-        <v>1185</v>
+        <v>1178.468385611193</v>
       </c>
       <c r="E4">
-        <v>2199</v>
+        <v>2204.643962329801</v>
       </c>
       <c r="F4">
-        <v>2137</v>
+        <v>2140.236464658321</v>
       </c>
       <c r="G4">
-        <v>2095</v>
+        <v>2096.593753118568</v>
       </c>
       <c r="H4">
-        <v>2202</v>
+        <v>2206.561388682944</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -508,25 +508,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2183</v>
+        <v>2185.201902321746</v>
       </c>
       <c r="C5">
-        <v>1851</v>
+        <v>1856.916359620758</v>
       </c>
       <c r="D5">
-        <v>1274</v>
+        <v>1259.317519699002</v>
       </c>
       <c r="E5">
-        <v>2208</v>
+        <v>2213.264139928402</v>
       </c>
       <c r="F5">
-        <v>2185</v>
+        <v>2187.615832963864</v>
       </c>
       <c r="G5">
-        <v>2069</v>
+        <v>2070.329385050662</v>
       </c>
       <c r="H5">
-        <v>2209</v>
+        <v>2213.921757419303</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -534,25 +534,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2190</v>
+        <v>2191.64712965028</v>
       </c>
       <c r="C6">
-        <v>1849</v>
+        <v>1855.084687763432</v>
       </c>
       <c r="D6">
-        <v>446</v>
+        <v>440.1144253121332</v>
       </c>
       <c r="E6">
-        <v>2215</v>
+        <v>2219.368179815974</v>
       </c>
       <c r="F6">
-        <v>2192</v>
+        <v>2193.78184930315</v>
       </c>
       <c r="G6">
-        <v>1894</v>
+        <v>1894.731092481184</v>
       </c>
       <c r="H6">
-        <v>2215</v>
+        <v>2219.610231407072</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -560,25 +560,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2167</v>
+        <v>2171.940903516458</v>
       </c>
       <c r="C7">
-        <v>1860</v>
+        <v>1866.352806353311</v>
       </c>
       <c r="D7">
-        <v>677</v>
+        <v>668.115238023379</v>
       </c>
       <c r="E7">
-        <v>2203</v>
+        <v>2209.792567099627</v>
       </c>
       <c r="F7">
-        <v>2172</v>
+        <v>2175.768832331416</v>
       </c>
       <c r="G7">
-        <v>1916</v>
+        <v>1916.80201782857</v>
       </c>
       <c r="H7">
-        <v>2206</v>
+        <v>2210.892787299947</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -586,25 +586,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2170</v>
+        <v>2172.503856724016</v>
       </c>
       <c r="C8">
-        <v>1808</v>
+        <v>1810.082880098869</v>
       </c>
       <c r="D8">
-        <v>734</v>
+        <v>724.304622318827</v>
       </c>
       <c r="E8">
-        <v>2200</v>
+        <v>2204.063040089982</v>
       </c>
       <c r="F8">
-        <v>2171</v>
+        <v>2173.588269967609</v>
       </c>
       <c r="G8">
-        <v>1898</v>
+        <v>1896.532347435891</v>
       </c>
       <c r="H8">
-        <v>2202</v>
+        <v>2204.46439533886</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -612,25 +612,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2185</v>
+        <v>2187.02243935776</v>
       </c>
       <c r="C9">
-        <v>1849</v>
+        <v>1854.667135943324</v>
       </c>
       <c r="D9">
-        <v>704</v>
+        <v>702.5796034120372</v>
       </c>
       <c r="E9">
-        <v>2202</v>
+        <v>2207.328665015756</v>
       </c>
       <c r="F9">
-        <v>2189</v>
+        <v>2191.725020862515</v>
       </c>
       <c r="G9">
-        <v>1917</v>
+        <v>1920.750419483241</v>
       </c>
       <c r="H9">
-        <v>2203</v>
+        <v>2208.723841640438</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -638,25 +638,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1918</v>
+        <v>1922.900717917014</v>
       </c>
       <c r="C10">
-        <v>1933</v>
+        <v>1939.815918085547</v>
       </c>
       <c r="D10">
-        <v>1399</v>
+        <v>1378.827377776219</v>
       </c>
       <c r="E10">
-        <v>2149</v>
+        <v>2152.809230531152</v>
       </c>
       <c r="F10">
-        <v>2001</v>
+        <v>2001.459579491783</v>
       </c>
       <c r="G10">
-        <v>2063</v>
+        <v>2063.638446140928</v>
       </c>
       <c r="H10">
-        <v>2157</v>
+        <v>2161.726782239577</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -664,25 +664,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1864</v>
+        <v>1866.433802825766</v>
       </c>
       <c r="C11">
-        <v>1947</v>
+        <v>1953.123059391344</v>
       </c>
       <c r="D11">
-        <v>1225</v>
+        <v>1207.322159653751</v>
       </c>
       <c r="E11">
-        <v>2154</v>
+        <v>2155.703348248459</v>
       </c>
       <c r="F11">
-        <v>1941</v>
+        <v>1940.725141317559</v>
       </c>
       <c r="G11">
-        <v>2046</v>
+        <v>2045.065604917479</v>
       </c>
       <c r="H11">
-        <v>2158</v>
+        <v>2160.859079728361</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -690,25 +690,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1579</v>
+        <v>1582.176651645972</v>
       </c>
       <c r="C12">
-        <v>1922</v>
+        <v>1925.405581190644</v>
       </c>
       <c r="D12">
-        <v>474</v>
+        <v>462.4579046651045</v>
       </c>
       <c r="E12">
-        <v>2096</v>
+        <v>2098.051720771348</v>
       </c>
       <c r="F12">
-        <v>1603</v>
+        <v>1605.030983419213</v>
       </c>
       <c r="G12">
-        <v>1950</v>
+        <v>1950.445220564697</v>
       </c>
       <c r="H12">
-        <v>2097</v>
+        <v>2098.669692755373</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -716,25 +716,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1899</v>
+        <v>1903.651813317016</v>
       </c>
       <c r="C13">
-        <v>1931</v>
+        <v>1935.285702291976</v>
       </c>
       <c r="D13">
-        <v>1174</v>
+        <v>1152.058979345561</v>
       </c>
       <c r="E13">
-        <v>2142</v>
+        <v>2145.920377647311</v>
       </c>
       <c r="F13">
-        <v>1955</v>
+        <v>1954.061397624516</v>
       </c>
       <c r="G13">
-        <v>2020</v>
+        <v>2019.552879454643</v>
       </c>
       <c r="H13">
-        <v>2147</v>
+        <v>2150.349025874085</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_middelhoog.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_middelhoog.xlsx
@@ -430,25 +430,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2165.691048665342</v>
+        <v>2158.314632180927</v>
       </c>
       <c r="C2">
-        <v>1838.018729192084</v>
+        <v>1915.282181076994</v>
       </c>
       <c r="D2">
-        <v>1303.400515533381</v>
+        <v>1228.258883009834</v>
       </c>
       <c r="E2">
-        <v>2213.267102976351</v>
+        <v>2209.506760522721</v>
       </c>
       <c r="F2">
-        <v>2175.325749412518</v>
+        <v>2166.195599819634</v>
       </c>
       <c r="G2">
-        <v>2108.131502855095</v>
+        <v>2083.124264583032</v>
       </c>
       <c r="H2">
-        <v>2214.805403650955</v>
+        <v>2210.317471706634</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,25 +456,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2183.136329287854</v>
+        <v>2172.64565425552</v>
       </c>
       <c r="C3">
-        <v>1847.781862906447</v>
+        <v>1839.196797963223</v>
       </c>
       <c r="D3">
-        <v>1158.652876897095</v>
+        <v>1155.976969583287</v>
       </c>
       <c r="E3">
-        <v>2214.879550218847</v>
+        <v>2211.695424136647</v>
       </c>
       <c r="F3">
-        <v>2187.073464779258</v>
+        <v>2177.733914366204</v>
       </c>
       <c r="G3">
-        <v>2100.219135539186</v>
+        <v>2088.988195104389</v>
       </c>
       <c r="H3">
-        <v>2215.442358444167</v>
+        <v>2212.476979927334</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -482,25 +482,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2127.598171040406</v>
+        <v>2130.866972544521</v>
       </c>
       <c r="C4">
-        <v>1850.061862514113</v>
+        <v>1832.251604520887</v>
       </c>
       <c r="D4">
-        <v>1178.468385611193</v>
+        <v>1281.472400244587</v>
       </c>
       <c r="E4">
-        <v>2204.643962329801</v>
+        <v>2204.844960738918</v>
       </c>
       <c r="F4">
-        <v>2140.236464658321</v>
+        <v>2148.171109681657</v>
       </c>
       <c r="G4">
-        <v>2096.593753118568</v>
+        <v>2099.897451229905</v>
       </c>
       <c r="H4">
-        <v>2206.561388682944</v>
+        <v>2208.086862789832</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -508,25 +508,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2185.201902321746</v>
+        <v>2186.274134002823</v>
       </c>
       <c r="C5">
-        <v>1856.916359620758</v>
+        <v>1832.035306284129</v>
       </c>
       <c r="D5">
-        <v>1259.317519699002</v>
+        <v>1305.541820788051</v>
       </c>
       <c r="E5">
-        <v>2213.264139928402</v>
+        <v>2208.719627036477</v>
       </c>
       <c r="F5">
-        <v>2187.615832963864</v>
+        <v>2187.851484199776</v>
       </c>
       <c r="G5">
-        <v>2070.329385050662</v>
+        <v>2081.325336738278</v>
       </c>
       <c r="H5">
-        <v>2213.921757419303</v>
+        <v>2209.106131359651</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -534,25 +534,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2191.64712965028</v>
+        <v>2189.702783941383</v>
       </c>
       <c r="C6">
-        <v>1855.084687763432</v>
+        <v>1839.106452291354</v>
       </c>
       <c r="D6">
-        <v>440.1144253121332</v>
+        <v>434.2893279671807</v>
       </c>
       <c r="E6">
-        <v>2219.368179815974</v>
+        <v>2218.606106432128</v>
       </c>
       <c r="F6">
-        <v>2193.78184930315</v>
+        <v>2192.346443008771</v>
       </c>
       <c r="G6">
-        <v>1894.731092481184</v>
+        <v>1885.95393739311</v>
       </c>
       <c r="H6">
-        <v>2219.610231407072</v>
+        <v>2218.83653799973</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -560,25 +560,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2171.940903516458</v>
+        <v>2181.143966263551</v>
       </c>
       <c r="C7">
-        <v>1866.352806353311</v>
+        <v>1833.993524116494</v>
       </c>
       <c r="D7">
-        <v>668.115238023379</v>
+        <v>664.6641974536042</v>
       </c>
       <c r="E7">
-        <v>2209.792567099627</v>
+        <v>2209.81957095418</v>
       </c>
       <c r="F7">
-        <v>2175.768832331416</v>
+        <v>2183.25409756866</v>
       </c>
       <c r="G7">
-        <v>1916.80201782857</v>
+        <v>1900.907191806483</v>
       </c>
       <c r="H7">
-        <v>2210.892787299947</v>
+        <v>2210.496946107749</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -586,25 +586,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2172.503856724016</v>
+        <v>2175.760360169388</v>
       </c>
       <c r="C8">
-        <v>1810.082880098869</v>
+        <v>1833.361883931984</v>
       </c>
       <c r="D8">
-        <v>724.304622318827</v>
+        <v>752.0186257894115</v>
       </c>
       <c r="E8">
-        <v>2204.063040089982</v>
+        <v>2216.915594465268</v>
       </c>
       <c r="F8">
-        <v>2173.588269967609</v>
+        <v>2179.203167792671</v>
       </c>
       <c r="G8">
-        <v>1896.532347435891</v>
+        <v>1923.851290575834</v>
       </c>
       <c r="H8">
-        <v>2204.46439533886</v>
+        <v>2217.285372943511</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -612,25 +612,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2187.02243935776</v>
+        <v>2174.481886389158</v>
       </c>
       <c r="C9">
-        <v>1854.667135943324</v>
+        <v>1825.887354415971</v>
       </c>
       <c r="D9">
-        <v>702.5796034120372</v>
+        <v>629.3273133846441</v>
       </c>
       <c r="E9">
-        <v>2207.328665015756</v>
+        <v>2202.332761835868</v>
       </c>
       <c r="F9">
-        <v>2191.725020862515</v>
+        <v>2177.544152344342</v>
       </c>
       <c r="G9">
-        <v>1920.750419483241</v>
+        <v>1895.872462272853</v>
       </c>
       <c r="H9">
-        <v>2208.723841640438</v>
+        <v>2203.111507856711</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -638,25 +638,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1922.900717917014</v>
+        <v>1962.141316747406</v>
       </c>
       <c r="C10">
-        <v>1939.815918085547</v>
+        <v>1894.916213845896</v>
       </c>
       <c r="D10">
-        <v>1378.827377776219</v>
+        <v>1231.250951774202</v>
       </c>
       <c r="E10">
-        <v>2152.809230531152</v>
+        <v>2130.293612486543</v>
       </c>
       <c r="F10">
-        <v>2001.459579491783</v>
+        <v>2000.608838265265</v>
       </c>
       <c r="G10">
-        <v>2063.638446140928</v>
+        <v>2002.829601901688</v>
       </c>
       <c r="H10">
-        <v>2161.726782239577</v>
+        <v>2135.82441495202</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -664,25 +664,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1866.433802825766</v>
+        <v>1909.651753793775</v>
       </c>
       <c r="C11">
-        <v>1953.123059391344</v>
+        <v>1921.3379978942</v>
       </c>
       <c r="D11">
-        <v>1207.322159653751</v>
+        <v>1044.152153058572</v>
       </c>
       <c r="E11">
-        <v>2155.703348248459</v>
+        <v>2138.163422438887</v>
       </c>
       <c r="F11">
-        <v>1940.725141317559</v>
+        <v>1945.89379867012</v>
       </c>
       <c r="G11">
-        <v>2045.065604917479</v>
+        <v>1997.625812105908</v>
       </c>
       <c r="H11">
-        <v>2160.859079728361</v>
+        <v>2140.734185147066</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -690,25 +690,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1582.176651645972</v>
+        <v>1545.784212571943</v>
       </c>
       <c r="C12">
-        <v>1925.405581190644</v>
+        <v>1856.800577042918</v>
       </c>
       <c r="D12">
-        <v>462.4579046651045</v>
+        <v>435.3188208760614</v>
       </c>
       <c r="E12">
-        <v>2098.051720771348</v>
+        <v>2038.577522065116</v>
       </c>
       <c r="F12">
-        <v>1605.030983419213</v>
+        <v>1575.383409248224</v>
       </c>
       <c r="G12">
-        <v>1950.445220564697</v>
+        <v>1878.318127134205</v>
       </c>
       <c r="H12">
-        <v>2098.669692755373</v>
+        <v>2039.39822218243</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -716,25 +716,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1903.651813317016</v>
+        <v>1910.114501071451</v>
       </c>
       <c r="C13">
-        <v>1935.285702291976</v>
+        <v>1884.64303962661</v>
       </c>
       <c r="D13">
-        <v>1152.058979345561</v>
+        <v>1005.724054390133</v>
       </c>
       <c r="E13">
-        <v>2145.920377647311</v>
+        <v>2115.28901417722</v>
       </c>
       <c r="F13">
-        <v>1954.061397624516</v>
+        <v>1944.407551037036</v>
       </c>
       <c r="G13">
-        <v>2019.552879454643</v>
+        <v>1956.188134142214</v>
       </c>
       <c r="H13">
-        <v>2150.349025874085</v>
+        <v>2118.422633724458</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_middelhoog.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_middelhoog.xlsx
@@ -430,25 +430,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2158.314632180927</v>
+        <v>2158</v>
       </c>
       <c r="C2">
-        <v>1915.282181076994</v>
+        <v>1915</v>
       </c>
       <c r="D2">
-        <v>1228.258883009834</v>
+        <v>1228</v>
       </c>
       <c r="E2">
-        <v>2209.506760522721</v>
+        <v>2210</v>
       </c>
       <c r="F2">
-        <v>2166.195599819634</v>
+        <v>2166</v>
       </c>
       <c r="G2">
-        <v>2083.124264583032</v>
+        <v>2083</v>
       </c>
       <c r="H2">
-        <v>2210.317471706634</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,25 +456,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2172.64565425552</v>
+        <v>2173</v>
       </c>
       <c r="C3">
-        <v>1839.196797963223</v>
+        <v>1839</v>
       </c>
       <c r="D3">
-        <v>1155.976969583287</v>
+        <v>1156</v>
       </c>
       <c r="E3">
-        <v>2211.695424136647</v>
+        <v>2212</v>
       </c>
       <c r="F3">
-        <v>2177.733914366204</v>
+        <v>2178</v>
       </c>
       <c r="G3">
-        <v>2088.988195104389</v>
+        <v>2089</v>
       </c>
       <c r="H3">
-        <v>2212.476979927334</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -482,25 +482,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2130.866972544521</v>
+        <v>2131</v>
       </c>
       <c r="C4">
-        <v>1832.251604520887</v>
+        <v>1832</v>
       </c>
       <c r="D4">
-        <v>1281.472400244587</v>
+        <v>1281</v>
       </c>
       <c r="E4">
-        <v>2204.844960738918</v>
+        <v>2205</v>
       </c>
       <c r="F4">
-        <v>2148.171109681657</v>
+        <v>2148</v>
       </c>
       <c r="G4">
-        <v>2099.897451229905</v>
+        <v>2100</v>
       </c>
       <c r="H4">
-        <v>2208.086862789832</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -508,25 +508,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2186.274134002823</v>
+        <v>2186</v>
       </c>
       <c r="C5">
-        <v>1832.035306284129</v>
+        <v>1832</v>
       </c>
       <c r="D5">
-        <v>1305.541820788051</v>
+        <v>1306</v>
       </c>
       <c r="E5">
-        <v>2208.719627036477</v>
+        <v>2209</v>
       </c>
       <c r="F5">
-        <v>2187.851484199776</v>
+        <v>2188</v>
       </c>
       <c r="G5">
-        <v>2081.325336738278</v>
+        <v>2081</v>
       </c>
       <c r="H5">
-        <v>2209.106131359651</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -534,25 +534,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2189.702783941383</v>
+        <v>2190</v>
       </c>
       <c r="C6">
-        <v>1839.106452291354</v>
+        <v>1839</v>
       </c>
       <c r="D6">
-        <v>434.2893279671807</v>
+        <v>434</v>
       </c>
       <c r="E6">
-        <v>2218.606106432128</v>
+        <v>2219</v>
       </c>
       <c r="F6">
-        <v>2192.346443008771</v>
+        <v>2192</v>
       </c>
       <c r="G6">
-        <v>1885.95393739311</v>
+        <v>1886</v>
       </c>
       <c r="H6">
-        <v>2218.83653799973</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -560,25 +560,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2181.143966263551</v>
+        <v>2181</v>
       </c>
       <c r="C7">
-        <v>1833.993524116494</v>
+        <v>1834</v>
       </c>
       <c r="D7">
-        <v>664.6641974536042</v>
+        <v>665</v>
       </c>
       <c r="E7">
-        <v>2209.81957095418</v>
+        <v>2210</v>
       </c>
       <c r="F7">
-        <v>2183.25409756866</v>
+        <v>2183</v>
       </c>
       <c r="G7">
-        <v>1900.907191806483</v>
+        <v>1901</v>
       </c>
       <c r="H7">
-        <v>2210.496946107749</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -586,25 +586,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2175.760360169388</v>
+        <v>2176</v>
       </c>
       <c r="C8">
-        <v>1833.361883931984</v>
+        <v>1833</v>
       </c>
       <c r="D8">
-        <v>752.0186257894115</v>
+        <v>752</v>
       </c>
       <c r="E8">
-        <v>2216.915594465268</v>
+        <v>2217</v>
       </c>
       <c r="F8">
-        <v>2179.203167792671</v>
+        <v>2179</v>
       </c>
       <c r="G8">
-        <v>1923.851290575834</v>
+        <v>1924</v>
       </c>
       <c r="H8">
-        <v>2217.285372943511</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -612,25 +612,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2174.481886389158</v>
+        <v>2174</v>
       </c>
       <c r="C9">
-        <v>1825.887354415971</v>
+        <v>1826</v>
       </c>
       <c r="D9">
-        <v>629.3273133846441</v>
+        <v>629</v>
       </c>
       <c r="E9">
-        <v>2202.332761835868</v>
+        <v>2202</v>
       </c>
       <c r="F9">
-        <v>2177.544152344342</v>
+        <v>2178</v>
       </c>
       <c r="G9">
-        <v>1895.872462272853</v>
+        <v>1896</v>
       </c>
       <c r="H9">
-        <v>2203.111507856711</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -638,25 +638,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1962.141316747406</v>
+        <v>1962</v>
       </c>
       <c r="C10">
-        <v>1894.916213845896</v>
+        <v>1895</v>
       </c>
       <c r="D10">
-        <v>1231.250951774202</v>
+        <v>1231</v>
       </c>
       <c r="E10">
-        <v>2130.293612486543</v>
+        <v>2130</v>
       </c>
       <c r="F10">
-        <v>2000.608838265265</v>
+        <v>2001</v>
       </c>
       <c r="G10">
-        <v>2002.829601901688</v>
+        <v>2003</v>
       </c>
       <c r="H10">
-        <v>2135.82441495202</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -664,25 +664,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1909.651753793775</v>
+        <v>1910</v>
       </c>
       <c r="C11">
-        <v>1921.3379978942</v>
+        <v>1921</v>
       </c>
       <c r="D11">
-        <v>1044.152153058572</v>
+        <v>1044</v>
       </c>
       <c r="E11">
-        <v>2138.163422438887</v>
+        <v>2138</v>
       </c>
       <c r="F11">
-        <v>1945.89379867012</v>
+        <v>1946</v>
       </c>
       <c r="G11">
-        <v>1997.625812105908</v>
+        <v>1998</v>
       </c>
       <c r="H11">
-        <v>2140.734185147066</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -690,25 +690,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1545.784212571943</v>
+        <v>1546</v>
       </c>
       <c r="C12">
-        <v>1856.800577042918</v>
+        <v>1857</v>
       </c>
       <c r="D12">
-        <v>435.3188208760614</v>
+        <v>435</v>
       </c>
       <c r="E12">
-        <v>2038.577522065116</v>
+        <v>2039</v>
       </c>
       <c r="F12">
-        <v>1575.383409248224</v>
+        <v>1575</v>
       </c>
       <c r="G12">
-        <v>1878.318127134205</v>
+        <v>1878</v>
       </c>
       <c r="H12">
-        <v>2039.39822218243</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -716,25 +716,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1910.114501071451</v>
+        <v>1910</v>
       </c>
       <c r="C13">
-        <v>1884.64303962661</v>
+        <v>1885</v>
       </c>
       <c r="D13">
-        <v>1005.724054390133</v>
+        <v>1006</v>
       </c>
       <c r="E13">
-        <v>2115.28901417722</v>
+        <v>2115</v>
       </c>
       <c r="F13">
-        <v>1944.407551037036</v>
+        <v>1944</v>
       </c>
       <c r="G13">
-        <v>1956.188134142214</v>
+        <v>1956</v>
       </c>
       <c r="H13">
-        <v>2118.422633724458</v>
+        <v>2118</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_middelhoog.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_middelhoog.xlsx
@@ -430,10 +430,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2158.314632180927</v>
+        <v>2158.314632180928</v>
       </c>
       <c r="C2">
-        <v>1915.282181076994</v>
+        <v>1915.282181076995</v>
       </c>
       <c r="D2">
         <v>1228.258883009834</v>
@@ -448,7 +448,7 @@
         <v>2083.124264583032</v>
       </c>
       <c r="H2">
-        <v>2210.317471706634</v>
+        <v>2210.317471706635</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -488,7 +488,7 @@
         <v>1832.251604520887</v>
       </c>
       <c r="D4">
-        <v>1281.472400244587</v>
+        <v>1281.472400244588</v>
       </c>
       <c r="E4">
         <v>2204.844960738918</v>
@@ -497,7 +497,7 @@
         <v>2148.171109681657</v>
       </c>
       <c r="G4">
-        <v>2099.897451229905</v>
+        <v>2099.897451229906</v>
       </c>
       <c r="H4">
         <v>2208.086862789832</v>
@@ -508,7 +508,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2186.274134002823</v>
+        <v>2186.274134002822</v>
       </c>
       <c r="C5">
         <v>1832.035306284129</v>
@@ -520,7 +520,7 @@
         <v>2208.719627036477</v>
       </c>
       <c r="F5">
-        <v>2187.851484199776</v>
+        <v>2187.851484199775</v>
       </c>
       <c r="G5">
         <v>2081.325336738278</v>
@@ -540,13 +540,13 @@
         <v>1839.106452291354</v>
       </c>
       <c r="D6">
-        <v>434.2893279671807</v>
+        <v>434.2893279671808</v>
       </c>
       <c r="E6">
         <v>2218.606106432128</v>
       </c>
       <c r="F6">
-        <v>2192.346443008771</v>
+        <v>2192.346443008772</v>
       </c>
       <c r="G6">
         <v>1885.95393739311</v>
@@ -566,13 +566,13 @@
         <v>1833.993524116494</v>
       </c>
       <c r="D7">
-        <v>664.6641974536042</v>
+        <v>664.6641974536043</v>
       </c>
       <c r="E7">
-        <v>2209.81957095418</v>
+        <v>2209.819570954181</v>
       </c>
       <c r="F7">
-        <v>2183.25409756866</v>
+        <v>2183.254097568661</v>
       </c>
       <c r="G7">
         <v>1900.907191806483</v>
@@ -586,13 +586,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2175.760360169388</v>
+        <v>2175.760360169387</v>
       </c>
       <c r="C8">
         <v>1833.361883931984</v>
       </c>
       <c r="D8">
-        <v>752.0186257894115</v>
+        <v>752.0186257894117</v>
       </c>
       <c r="E8">
         <v>2216.915594465268</v>
@@ -630,7 +630,7 @@
         <v>1895.872462272853</v>
       </c>
       <c r="H9">
-        <v>2203.111507856711</v>
+        <v>2203.111507856712</v>
       </c>
     </row>
     <row r="10" spans="1:12">
